--- a/trunk/summary.xlsx
+++ b/trunk/summary.xlsx
@@ -4,26 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Chart2" sheetId="5" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Univ</t>
   </si>
   <si>
-    <t>system URL</t>
-  </si>
-  <si>
     <t>ID/pin</t>
   </si>
   <si>
@@ -33,12 +32,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>UFL</t>
-  </si>
-  <si>
-    <t>USC</t>
-  </si>
-  <si>
     <t>http://www.usc.edu/admission/graduate/applyonline/</t>
   </si>
   <si>
@@ -48,45 +41,378 @@
     <t>Nimama2011</t>
   </si>
   <si>
-    <t>UCSD</t>
-  </si>
-  <si>
-    <t>없는거같다</t>
-  </si>
-  <si>
-    <t>RICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 연구진들의 방향이 내가 관심갖는거랑 불일치. </t>
-  </si>
-  <si>
     <t>spring deadline</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>princeton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no admisson.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JHU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> deadline for Spring for international applicants is the second Friday in </t>
+    <t>LOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>washingtonDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring is October 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT9074620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nimama2011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Purdue University,West Lafayette</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
         <family val="3"/>
         <charset val="129"/>
+      </rPr>
+      <t>普渡大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>西拉法叶校</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">区 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Duke University</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>杜克大</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="새굴림"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Pratt)  spring ms only</t>
+    </r>
+  </si>
+  <si>
+    <t>Financial aid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johns Hopkins UniversityJHU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>没有公布spring2013的截止日期。For spring2012 it was nov 2011. 要想春季入学得事先跟他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>们交涉。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>页信息不全面。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教授</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>们的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>研究方向不感</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兴趣。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10/15/2012
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网站上没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CS的截止日期， 可能要通</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过申请系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来找到截止日期。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$17,228</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 학비.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+good, nearlly all MS get full aid. 자동으로 고려대상이 됨.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>required docs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Students from China are required to submit a final transcript, graduation diploma and degree certificate.
+신청과정에 paper material안보낸다
+합격되면 공식문서보낸다.
+Admission stage에는 문제가 까다롭다.(final Chinese documents must include transcripts, graduation diplomas and degree certificates in Chinese, all with official English translations and sent directly from the home institution)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">test score , refreee 남았으. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring semester - Sep 15th.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">application sys:
+https://horizon.ouac.on.ca/webapp/account.d2w/report?ident=ACCOUNT_DSP&amp;merchant_rn=656872&amp;action_id=choose
+guide to internationals
+http://www.grad.uwaterloo.ca/students/prospective/International/intl_adm_guide.asp
+application guide
+http://www.grad.uwaterloo.ca/students/applyingonline.asp#tran
+faculties
+http://www.cs.uwaterloo.ca/research/directory-2008/
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> deadline for Spring for international applicants is the second Friday in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
       <t>September</t>
@@ -104,50 +430,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.grad.jhu.edu/admissions/index.php</t>
-  </si>
-  <si>
-    <t>LOC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>washingtonDC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCLA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UCI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Georgia Tech</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>있는거 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gradadmiss.gatech.edu/apply/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">atlanta </t>
+    <t>http://www.grad.jhu.edu/admissions/index.php
+deadline:
+http://grad.jhu.edu/academics/programs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS:
+http://compsci.rice.edu/academics.cfm?doc_id=4788
+gradappmail:gradapp@cs.rice.edu.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://liuxue.xdf.cn/wzy/zb/zx/270536.노싀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加拿大：http://liuxue.xdf.cn/wzy/zb/zx/270536.shtml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +490,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="새굴림"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="새굴림"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -209,13 +580,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -230,6 +623,414 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UW Spring is October 15 application sys:
+https://horizon.ouac.on.ca/webapp/account.d2w/report?ident=ACCOUNT_DSP&amp;merchant_rn=656872&amp;action_id=choose
+guide to internationals
+http://www.grad.uwaterloo.ca/students/prospective/International/intl_adm_guide.asp
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Financial aid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>note</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USC Spring semester - Sep 15th. http://www.usc.edu/admission/graduate/applyonline/ 2A9Y3B9GQ32 Nimama2011</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Financial aid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>note</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="107398144"/>
+        <c:axId val="107236160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="107398144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107236160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107236160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107398144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UW Spring is October 15 application sys:
+https://horizon.ouac.on.ca/webapp/account.d2w/report?ident=ACCOUNT_DSP&amp;merchant_rn=656872&amp;action_id=choose
+guide to internationals
+http://www.grad.uwaterloo.ca/students/prospective/International/intl_adm_guide.asp
+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Financial aid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>note</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USC Spring semester - Sep 15th. http://www.usc.edu/admission/graduate/applyonline/ 2A9Y3B9GQ32 Nimama2011</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Financial aid</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>note</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$H$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="44324864"/>
+        <c:axId val="107238464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44324864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107238464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107238464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44324864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="106" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="106" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9309340" cy="6083420"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9309340" cy="6083420"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,150 +1320,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B11" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="13.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="25.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3"/>
+    <col min="4" max="4" width="51.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="44.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="87.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
+      <c r="B9" s="6">
+        <v>41183</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
     </row>
-    <row r="3" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="11" spans="1:10" ht="119.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="10">
+        <v>41122</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="99" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1"/>
-    <hyperlink ref="D11" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/summary.xlsx
+++ b/trunk/summary.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart2" sheetId="5" r:id="rId1"/>
-    <sheet name="Chart1" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Univ</t>
   </si>
@@ -163,166 +161,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>没有公布spring2013的截止日期。For spring2012 it was nov 2011. 要想春季入学得事先跟他</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>们交涉。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>主</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>页信息不全面。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教授</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>们的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>研究方向不感</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>兴趣。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">10/15/2012
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>网站上没有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CS的截止日期， 可能要通</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>过申请系统</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>来找到截止日期。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -442,15 +281,231 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>U리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://liuxue.xdf.cn/wzy/zb/zx/270536.노싀</t>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有公布spring2013的截止日期。For spring2012 it was nov 2011. 要想春季入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>得事先跟他</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>交涉。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">信息不全面。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>授</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>研</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>究方向不感</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">趣。 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro
+http://www.cs.duke.edu/education/graduate/prospective/resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/15/2012
+sent a mail to the gradcs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加拿大：http://liuxue.xdf.cn/wzy/zb/zx/270536.shtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBritishC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro:
+https://www.cs.ubc.ca/students/grad/prospective/applying/documents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국학생에 대해 까다롭다. 
+Application stage 에서도 하드코피자료 바친다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +513,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,14 +546,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -522,14 +569,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -557,6 +596,37 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -580,12 +650,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -594,20 +661,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -623,414 +696,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UW Spring is October 15 application sys:
-https://horizon.ouac.on.ca/webapp/account.d2w/report?ident=ACCOUNT_DSP&amp;merchant_rn=656872&amp;action_id=choose
-guide to internationals
-http://www.grad.uwaterloo.ca/students/prospective/International/intl_adm_guide.asp
-</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$G$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Financial aid</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>note</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>USC Spring semester - Sep 15th. http://www.usc.edu/admission/graduate/applyonline/ 2A9Y3B9GQ32 Nimama2011</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$G$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Financial aid</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>note</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$3:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="107398144"/>
-        <c:axId val="107236160"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="107398144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107236160"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="107236160"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107398144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$F$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>UW Spring is October 15 application sys:
-https://horizon.ouac.on.ca/webapp/account.d2w/report?ident=ACCOUNT_DSP&amp;merchant_rn=656872&amp;action_id=choose
-guide to internationals
-http://www.grad.uwaterloo.ca/students/prospective/International/intl_adm_guide.asp
-</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$G$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Financial aid</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>note</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$H$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3:$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>USC Spring semester - Sep 15th. http://www.usc.edu/admission/graduate/applyonline/ 2A9Y3B9GQ32 Nimama2011</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$G$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Financial aid</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>note</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$3:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="44324864"/>
-        <c:axId val="107238464"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="44324864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107238464"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="107238464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44324864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309340" cy="6083420"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309340" cy="6083420"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1320,166 +985,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="25.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3"/>
+    <col min="1" max="1" width="19.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="51.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="44.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="44.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>25</v>
+      <c r="I1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>26</v>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>27</v>
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="66" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
+      <c r="D7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="87.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:10" ht="50.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>41183</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
+      <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="119.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="10" customFormat="1" ht="29.25" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="10">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="8">
         <v>41122</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>36</v>
+    <row r="21" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="4">
+        <v>41258</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>37</v>
       </c>
     </row>
